--- a/Import/Configurations/religion_template.xlsx
+++ b/Import/Configurations/religion_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\argip\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D96ECF-30E8-4331-8228-40F56FA18B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC67C23-A0C7-41DC-926F-935A161F4E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="3084" windowWidth="17280" windowHeight="9912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,29 +46,29 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Hindu</t>
+  </si>
+  <si>
     <t>Islam</t>
   </si>
   <si>
+    <t>Konghucu</t>
+  </si>
+  <si>
+    <t>Kristen Katolik</t>
+  </si>
+  <si>
     <t>Kristen Protestan</t>
-  </si>
-  <si>
-    <t>Kristen Katolik</t>
-  </si>
-  <si>
-    <t>Hindu</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Konghucu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -442,46 +442,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
